--- a/data/trans_bre/P1421-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1421-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.243466511462991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.039026083892225</v>
+        <v>7.039026083892226</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.968807651381186</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3069634669239937</v>
+        <v>0.386349868805461</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.06933482406102119</v>
+        <v>-0.1418121975190517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3492305690573619</v>
+        <v>-0.3614004095881955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.149818740528487</v>
+        <v>2.146664025342467</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2392262361301944</v>
+        <v>-0.1263209369419045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1378738689086828</v>
+        <v>-0.1924848974380013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4008624969619152</v>
+        <v>-0.392782092455161</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.09224653836065105</v>
+        <v>0.1545385256219932</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.066135185369277</v>
+        <v>4.079328816348566</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.143232324914392</v>
+        <v>4.259126368977904</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.157074378681197</v>
+        <v>3.108503218793728</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.39789615347298</v>
+        <v>12.62132620729196</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7.891747214055619</v>
+        <v>9.057426457485052</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.023962018143309</v>
+        <v>5.85503299752994</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9.469616299800023</v>
+        <v>9.641125713534411</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8.145449618281086</v>
+        <v>10.3237973337492</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.901819404990519</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.88166298774701</v>
+        <v>5.881662987747011</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.682906083166084</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.287602879804465</v>
+        <v>3.184818175027651</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9146240960633248</v>
+        <v>1.063049221516548</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.976577332322868</v>
+        <v>3.815999208459845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.873925319090668</v>
+        <v>2.272999632508918</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.080650271677235</v>
+        <v>1.004692722523063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4519067845280065</v>
+        <v>0.4986169731716228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>2.441495284512765</v>
+        <v>2.411883795707959</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2325196706963768</v>
+        <v>0.2771406528905893</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.334397130390585</v>
+        <v>8.057451658934344</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.320847316846205</v>
+        <v>4.339984253892239</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.114029690012194</v>
+        <v>8.150818030918296</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.31030190170218</v>
+        <v>9.692768591295163</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.090561243525646</v>
+        <v>5.878490576633832</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>7.173966390897987</v>
+        <v>7.532955464506779</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>31.95272209712805</v>
+        <v>34.73542868030252</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.113598460418066</v>
+        <v>3.360639452077492</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.924141177384128</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.544854286447959</v>
+        <v>5.544854286447961</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.856259352251277</v>
@@ -849,7 +849,7 @@
         <v>1.707415202948474</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.118811304629109</v>
+        <v>1.11881130462911</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.099397577488761</v>
+        <v>1.6502065340459</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.294409594391674</v>
+        <v>3.581489373745204</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4182053301024073</v>
+        <v>0.1803460689146745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.933067077005278</v>
+        <v>2.9680117796972</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6313271152899386</v>
+        <v>0.4702361535500543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.129377632636433</v>
+        <v>1.262439121648014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1180869864017939</v>
+        <v>0.003554928463184306</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.4135568581415769</v>
+        <v>0.4498010763749562</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.491800817814469</v>
+        <v>6.219156362760842</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.722005376911175</v>
+        <v>7.814330273398272</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.552741383402039</v>
+        <v>3.530543535323504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.46866115004841</v>
+        <v>8.402658940458478</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.701991874035364</v>
+        <v>4.185695445141716</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>8.26763850557826</v>
+        <v>8.335655162745368</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>6.796626442864605</v>
+        <v>6.700138982132063</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.441116580156449</v>
+        <v>2.333790622386219</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.590827301509859</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8.382514008032036</v>
+        <v>8.382514008032041</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.157074916804831</v>
@@ -949,7 +949,7 @@
         <v>2.050771264963771</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.346343123709396</v>
+        <v>1.346343123709397</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7025100573739822</v>
+        <v>0.8316335763332547</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.570445968497199</v>
+        <v>2.724640984649143</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.636221999972159</v>
+        <v>1.510345843921595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.291637270013233</v>
+        <v>5.596766394274949</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1010277257160221</v>
+        <v>0.1860377165790997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.298533361264548</v>
+        <v>1.508479879854248</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.53255986036604</v>
+        <v>0.5752084503585464</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6627043288501309</v>
+        <v>0.724469454958188</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.859574177958613</v>
+        <v>5.770445574147086</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.983672663961955</v>
+        <v>7.158347488819315</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.80234473446396</v>
+        <v>5.689672993840722</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.74151833330128</v>
+        <v>11.0582567254778</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.294742011716123</v>
+        <v>3.275912883622321</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14.5928772915288</v>
+        <v>14.80478482330912</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5.389526430255494</v>
+        <v>5.354805043339078</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.198579682552499</v>
+        <v>2.275567166026196</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.800265522846122</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.138199676304021</v>
+        <v>8.138199676304025</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2802746160440837</v>
@@ -1049,7 +1049,7 @@
         <v>2.132799966646794</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.942394725356228</v>
+        <v>1.94239472535623</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.908978551907357</v>
+        <v>-2.024940139458574</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.711357464404812</v>
+        <v>1.775241721126324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.820657650762611</v>
+        <v>1.960004680880151</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.70872595317349</v>
+        <v>5.689154192855149</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3424572160557288</v>
+        <v>-0.3780923302483815</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5619742136241841</v>
+        <v>0.710016779051502</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4115898352411656</v>
+        <v>0.3766298834030399</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.9772123534182297</v>
+        <v>0.9901491790818365</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.236470796717243</v>
+        <v>4.291925660644361</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.483002379875943</v>
+        <v>6.336016919448534</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.981070731843823</v>
+        <v>7.576498997744893</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.64742507318886</v>
+        <v>10.86153754104945</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.378371051208391</v>
+        <v>1.442779386668831</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15.52008094172614</v>
+        <v>18.66275372918863</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5.9936149325194</v>
+        <v>5.883487614856464</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.497133050121188</v>
+        <v>3.631925989192464</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.268318594155441</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.51244637424033</v>
+        <v>5.512446374240329</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.896432133627868</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.63982754530459</v>
+        <v>1.555499588073178</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.988601104905109</v>
+        <v>2.784914334639779</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.807320797459218</v>
+        <v>2.708972303831453</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.691881108887217</v>
+        <v>2.907369769163036</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3102707575288514</v>
+        <v>0.2206105748670835</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.922392864892988</v>
+        <v>0.8525718913484086</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.073594341346723</v>
+        <v>0.8498496998046889</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.564864040890893</v>
+        <v>0.5907940247007002</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.793384889242347</v>
+        <v>7.879141804629118</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.375073700502581</v>
+        <v>8.174522340039971</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.526910554779327</v>
+        <v>8.2466792708636</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.763951383010418</v>
+        <v>7.979751894346113</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>5.596618131506391</v>
+        <v>5.839986993027452</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>22.36155948359493</v>
+        <v>25.53204196272849</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>20.27432051859208</v>
+        <v>20.9115175195343</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.371970361997015</v>
+        <v>3.594719438403261</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.109305125780914</v>
+        <v>-2.212738393093571</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.443289875906287</v>
+        <v>2.894413720848745</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.01414507386229</v>
+        <v>3.051227195994871</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.050606548777883</v>
+        <v>3.535413544115161</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5816269441391968</v>
+        <v>-0.5731264004570469</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3219943421054688</v>
+        <v>0.7755197971903712</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5504245931728243</v>
+        <v>0.6197550390540957</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.546206209197044</v>
+        <v>0.5895408139315486</v>
       </c>
     </row>
     <row r="24">
@@ -1292,26 +1292,26 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.837883788955764</v>
+        <v>3.569454138211201</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.263878067130214</v>
+        <v>8.435912376890181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.23550792110036</v>
+        <v>10.01000409607055</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.735012105243511</v>
+        <v>8.800086947439937</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.885604017893787</v>
+        <v>2.967522620004216</v>
       </c>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="n">
-        <v>9.831528830009411</v>
+        <v>7.501870512060641</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>3.238737041025147</v>
+        <v>3.312098047174851</v>
       </c>
     </row>
     <row r="25">
@@ -1335,7 +1335,7 @@
         <v>4.082477248479535</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6.785681299856648</v>
+        <v>6.785681299856651</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1.408251630538734</v>
@@ -1347,7 +1347,7 @@
         <v>2.894470558639184</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>1.493821638293782</v>
+        <v>1.493821638293783</v>
       </c>
     </row>
     <row r="26">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.447970098363352</v>
+        <v>2.423151167320943</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.394476592198504</v>
+        <v>3.328112150210438</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.200146506489047</v>
+        <v>3.181142740535169</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5.620772240123621</v>
+        <v>5.596683857670957</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8789519741815138</v>
+        <v>0.8569405149580871</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2.245024725026977</v>
+        <v>2.07967582395347</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.807348131666951</v>
+        <v>1.789077677433805</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.068743620038442</v>
+        <v>1.081990950250203</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.403493296839384</v>
+        <v>4.336309759323199</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.055860145158227</v>
+        <v>5.030234502691891</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.043470888281668</v>
+        <v>4.980835962457676</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.886505677781913</v>
+        <v>8.005450020439463</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.188522408353982</v>
+        <v>2.095033957855034</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.201882051625645</v>
+        <v>5.191785532078029</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>4.466664084211034</v>
+        <v>4.470510179876672</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.972109682783299</v>
+        <v>1.986850231014415</v>
       </c>
     </row>
     <row r="28">
